--- a/data/dataset_primer_2.xlsx
+++ b/data/dataset_primer_2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5010c15d569d2076/04. University of Jember/01. Physics Academics/TUGAS AKHIR/04. Program-Evapotranspiration-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8BA54506-B3D3-4E4A-969C-B512CD65A760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41720C12-F485-4CA2-A933-3D6C568CE0F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FDE441-3DD4-4D92-A482-3F4A32872278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="615" activeTab="4" xr2:uid="{19779813-1ABE-4A54-9DA3-A5A4011250A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="615" activeTab="9" xr2:uid="{19779813-1ABE-4A54-9DA3-A5A4011250A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="day 05" sheetId="7" r:id="rId1"/>
+    <sheet name="day 05" sheetId="22" r:id="rId1"/>
     <sheet name="day 06" sheetId="8" r:id="rId2"/>
     <sheet name="day 07" sheetId="9" r:id="rId3"/>
     <sheet name="day 08" sheetId="10" r:id="rId4"/>
@@ -23,8 +23,6 @@
     <sheet name="day 13" sheetId="15" r:id="rId8"/>
     <sheet name="day 14" sheetId="16" r:id="rId9"/>
     <sheet name="day 15" sheetId="17" r:id="rId10"/>
-    <sheet name="day 16" sheetId="18" r:id="rId11"/>
-    <sheet name="day 19" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="54">
   <si>
     <t>waktu</t>
   </si>
@@ -330,10 +328,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D3ACE5-4237-42B5-A1BE-967C85B64D25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21713319-C5A6-4F0A-B88E-3B3B2CA8637A}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +954,7 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7">
-        <v>4.8869999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7">
@@ -1164,7 +1158,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
       <c r="B5" s="7">
@@ -1326,446 +1320,342 @@
       </c>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <v>2.2349999999999999</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3.032</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>3.9689999999999999</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>3.2850000000000001</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>3.8130000000000002</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>5.37</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>4.367</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>4.2370000000000001</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>6.55</v>
-      </c>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7">
-        <v>7.282</v>
-      </c>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>9.19</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>8.9730000000000008</v>
-      </c>
+      <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
-        <v>9.4429999999999996</v>
-      </c>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>11.528</v>
-      </c>
+      <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
-        <v>11.244</v>
-      </c>
+      <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="10">
-        <v>10.725</v>
-      </c>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="10">
-        <v>13.875</v>
-      </c>
+      <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
-      <c r="AJ6" s="10">
-        <v>16.427</v>
-      </c>
+      <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="10">
-        <v>15.504</v>
-      </c>
+      <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="10">
-        <v>14.561</v>
-      </c>
+      <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="10">
-        <v>17.355</v>
-      </c>
+      <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
-      <c r="AR6" s="10">
-        <v>20.364999999999998</v>
-      </c>
+      <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
-      <c r="AT6" s="10">
-        <v>19.649999999999999</v>
-      </c>
+      <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
-      <c r="AV6" s="10">
-        <v>20.582000000000001</v>
-      </c>
+      <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
-      <c r="AY6" s="10">
-        <v>98200</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>43</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>35</v>
-      </c>
-      <c r="BB6" s="10">
-        <v>1.65</v>
-      </c>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
     </row>
     <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>13</v>
       </c>
       <c r="B7" s="7">
-        <v>2.2069999999999999</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
-        <v>3.24</v>
+        <v>3.032</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>3.9340000000000002</v>
+        <v>3.9689999999999999</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
-        <v>3.2650000000000001</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7">
-        <v>3.8050000000000002</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>5.35</v>
+        <v>5.37</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>4.3499999999999996</v>
+        <v>4.367</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7">
-        <v>4.218</v>
+        <v>4.2370000000000001</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>6.5090000000000003</v>
+        <v>6.55</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
-        <v>7.2649999999999997</v>
+        <v>7.282</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7">
-        <v>9.1199999999999992</v>
+        <v>9.19</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>8.84</v>
+        <v>8.9730000000000008</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7">
-        <v>9.3800000000000008</v>
+        <v>9.4429999999999996</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7">
-        <v>11.5</v>
+        <v>11.528</v>
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7">
-        <v>11.221</v>
+        <v>11.244</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="10">
-        <v>10.689</v>
+        <v>10.725</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10">
-        <v>13.813000000000001</v>
+        <v>13.875</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10">
-        <v>16.367000000000001</v>
+        <v>16.427</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10">
-        <v>15.35</v>
+        <v>15.504</v>
       </c>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10">
-        <v>14.403</v>
+        <v>14.561</v>
       </c>
       <c r="AO7" s="10"/>
       <c r="AP7" s="10">
-        <v>17.163</v>
+        <v>17.355</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10">
-        <v>20.341000000000001</v>
+        <v>20.364999999999998</v>
       </c>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10">
-        <v>19.535</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="AU7" s="10"/>
       <c r="AV7" s="10">
-        <v>20.539000000000001</v>
+        <v>20.582000000000001</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10">
-        <v>76000</v>
+        <v>98200</v>
       </c>
       <c r="AZ7" s="10">
-        <v>40.700000000000003</v>
+        <v>43</v>
       </c>
       <c r="BA7" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB7" s="10">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10">
-        <v>1</v>
-      </c>
+      <c r="B8" s="7">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <v>4.218</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
+        <v>6.5090000000000003</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
+        <v>7.2649999999999997</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7">
+        <v>8.84</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7">
+        <v>11.221</v>
+      </c>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="10">
+        <v>10.689</v>
+      </c>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10">
+        <v>13.813000000000001</v>
+      </c>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10">
+        <v>16.367000000000001</v>
+      </c>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10">
+        <v>15.35</v>
+      </c>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10">
+        <v>14.403</v>
+      </c>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10">
+        <v>17.163</v>
+      </c>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10">
+        <v>20.341000000000001</v>
+      </c>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10">
+        <v>19.535</v>
+      </c>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10">
+        <v>20.539000000000001</v>
+      </c>
+      <c r="AW8" s="10"/>
       <c r="AX8" s="10"/>
       <c r="AY8" s="10">
-        <v>47100</v>
+        <v>76000</v>
       </c>
       <c r="AZ8" s="10">
-        <v>38.9</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BA8" s="10">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BB8" s="10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
-        <v>2.2570000000000001</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>3.073</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>4.0010000000000003</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <v>3.3260000000000001</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <v>4.0380000000000003</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7">
-        <v>5.5609999999999999</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>4.5609999999999999</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7">
-        <v>6.65</v>
-      </c>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7">
-        <v>7.37</v>
-      </c>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7">
-        <v>9.3119999999999994</v>
-      </c>
+      <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7">
-        <v>9.0250000000000004</v>
-      </c>
+      <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7">
-        <v>9.5069999999999997</v>
-      </c>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="7">
-        <v>11.683</v>
-      </c>
+      <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7">
-        <v>11.423</v>
-      </c>
+      <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="10">
-        <v>10.78</v>
-      </c>
+      <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="10">
-        <v>13.162000000000001</v>
-      </c>
+      <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="10">
-        <v>16.544</v>
-      </c>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="10">
-        <v>15.65</v>
-      </c>
+      <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
-      <c r="AN9" s="10">
-        <v>14.624000000000001</v>
-      </c>
+      <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="10">
-        <v>17.52</v>
-      </c>
+      <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
-      <c r="AR9" s="10">
-        <v>20.641999999999999</v>
-      </c>
+      <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
-      <c r="AT9" s="10">
-        <v>19.824000000000002</v>
-      </c>
+      <c r="AT9" s="10"/>
       <c r="AU9" s="10"/>
-      <c r="AV9" s="10">
-        <v>20.95</v>
-      </c>
+      <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
       <c r="AX9" s="10"/>
       <c r="AY9" s="10">
@@ -1790,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE9F08-D07E-40CE-BE7A-42B370CEE653}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2576,7 +2466,7 @@
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>9.8640000000000008</v>
+        <v>8.8640000000000008</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7">
@@ -2816,12 +2706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF3CD1-75E8-429B-BC9D-71259E30A9BB}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A094F24-77A8-4A12-975D-0B6D22456D7B}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BB4" sqref="BB4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,329 +2889,1428 @@
         <v>8</v>
       </c>
       <c r="B2" s="7">
-        <v>2.6880000000000002</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
-        <v>3.33</v>
+        <v>3.194</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6">
-        <v>4.0919999999999996</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <v>3.7050000000000001</v>
+        <v>3.73</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2">
-        <v>4.3879999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6">
-        <v>5.827</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6">
-        <v>4.8579999999999997</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6">
-        <v>4.9619999999999997</v>
+        <v>4.7</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6">
-        <v>7.6</v>
+        <v>7.6289999999999996</v>
       </c>
       <c r="S2"/>
       <c r="T2" s="6">
-        <v>7.8310000000000004</v>
+        <v>7.5570000000000004</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="7">
-        <v>9.15</v>
+        <v>9.07</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6">
-        <v>8.91</v>
+        <v>8.7159999999999993</v>
       </c>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6">
-        <v>9.98</v>
+        <v>9.7629999999999999</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6">
-        <v>11.542999999999999</v>
+        <v>11.217000000000001</v>
       </c>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6">
-        <v>11.574</v>
+        <v>11.512</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="9">
-        <v>10.954000000000001</v>
+        <v>10.69</v>
       </c>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9">
-        <v>14.662000000000001</v>
+        <v>14.189</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9">
-        <v>16.87</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9">
-        <v>15.558999999999999</v>
+        <v>15.173</v>
       </c>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
-        <v>15</v>
+        <v>14.461</v>
       </c>
       <c r="AO2" s="9"/>
       <c r="AP2" s="10">
-        <v>21.815000000000001</v>
+        <v>20.268000000000001</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9">
-        <v>24.321999999999999</v>
+        <v>22.864000000000001</v>
       </c>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9">
-        <v>23.606000000000002</v>
+        <v>22.172999999999998</v>
       </c>
       <c r="AU2" s="9"/>
       <c r="AV2" s="9">
-        <v>24.175000000000001</v>
+        <v>22.890999999999998</v>
       </c>
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
-      <c r="AY2" s="10">
+      <c r="AY2" s="9">
         <v>48800</v>
       </c>
       <c r="AZ2" s="10">
-        <v>37.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="BA2" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="BB2" s="9">
-        <v>9.3000000000000007</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AW3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="B3" s="7">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>4.03</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6">
+        <v>4.1589999999999998</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
+        <v>5.5629999999999997</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
+        <v>4.6859999999999999</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7">
+        <v>7.5380000000000003</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8">
+        <v>9.0950000000000006</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7">
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7">
+        <v>9.7919999999999998</v>
+      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7">
+        <v>11.254</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7">
+        <v>11.345000000000001</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="10">
+        <v>10.727</v>
+      </c>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10">
+        <v>14.2</v>
+      </c>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10">
+        <v>16.315999999999999</v>
+      </c>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10">
+        <v>15.153</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10">
+        <v>14.417</v>
+      </c>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10">
+        <v>20.225999999999999</v>
+      </c>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10">
+        <v>22.896000000000001</v>
+      </c>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10">
+        <v>22.045000000000002</v>
+      </c>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10">
+        <v>22.873000000000001</v>
+      </c>
+      <c r="AW3" s="10"/>
       <c r="AX3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
+      <c r="AY3" s="10">
+        <v>68700</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>41.2</v>
+      </c>
+      <c r="BA3" s="10">
+        <v>37</v>
+      </c>
+      <c r="BB3" s="10">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10</v>
       </c>
       <c r="B4" s="7">
-        <v>2.6589999999999998</v>
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.73</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4.3620000000000001</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>5.8010000000000002</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="7">
+        <v>7.64</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="7">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="X4" s="7">
+        <v>8.9730000000000008</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>10.138999999999999</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>11.840999999999999</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>11.664999999999999</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>11.12</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>14.773999999999999</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>16.774999999999999</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>15.643000000000001</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>21.245000000000001</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>23.93</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>23.177</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>24.07</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10">
+        <v>85000</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>45.2</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>28</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>3.319</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>5.718</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>4.883</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>7.5369999999999999</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>9.9779999999999998</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
+        <v>11.506</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
+        <v>11.531000000000001</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="10">
+        <v>10.97</v>
+      </c>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10">
+        <v>14.62</v>
+      </c>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10">
+        <v>15.648</v>
+      </c>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10">
+        <v>14.776</v>
+      </c>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10">
+        <v>21.209</v>
+      </c>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10">
+        <v>23.693000000000001</v>
+      </c>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10">
+        <v>23.023</v>
+      </c>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10">
+        <v>23.765000000000001</v>
+      </c>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10">
+        <v>90200</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>45.8</v>
+      </c>
+      <c r="BA5" s="10">
+        <v>26</v>
+      </c>
+      <c r="BB5" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>4.0529999999999999</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>5.7089999999999996</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7">
+        <v>7.4930000000000003</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7">
+        <v>7.726</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7">
+        <v>8.843</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7">
+        <v>9.8870000000000005</v>
+      </c>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7">
+        <v>11.472</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7">
+        <v>11.465</v>
+      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="10">
+        <v>10.9</v>
+      </c>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10">
+        <v>14.486000000000001</v>
+      </c>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10">
+        <v>16.495999999999999</v>
+      </c>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10">
+        <v>15.38</v>
+      </c>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10">
+        <v>14.69</v>
+      </c>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10">
+        <v>20.992999999999999</v>
+      </c>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10">
+        <v>23.532</v>
+      </c>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10">
+        <v>22.844999999999999</v>
+      </c>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10">
+        <v>23.614999999999998</v>
+      </c>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10">
+        <v>84500</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>44.9</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>3.6659999999999999</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>5.65</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <v>4.8159999999999998</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>7.4340000000000002</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
+        <v>7.6929999999999996</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7">
+        <v>9.8550000000000004</v>
+      </c>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7">
+        <v>11.381</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7">
+        <v>11.417999999999999</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="10">
+        <v>10.84</v>
+      </c>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10">
+        <v>14.422000000000001</v>
+      </c>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10">
+        <v>16.431000000000001</v>
+      </c>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10">
+        <v>15.318</v>
+      </c>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10">
+        <v>14.645</v>
+      </c>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10">
+        <v>20.984999999999999</v>
+      </c>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10">
+        <v>23.452999999999999</v>
+      </c>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10">
+        <v>22.831</v>
+      </c>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10">
+        <v>23.565999999999999</v>
+      </c>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10">
+        <v>77000</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="BA7" s="10">
+        <v>31</v>
+      </c>
+      <c r="BB7" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>3.27</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>4.2110000000000003</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>5.6280000000000001</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <v>4.6909999999999998</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
+        <v>7.4210000000000003</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
+        <v>7.657</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7">
+        <v>8.7409999999999997</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7">
+        <v>9.8030000000000008</v>
+      </c>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7">
+        <v>11.327999999999999</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7">
+        <v>11.374000000000001</v>
+      </c>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="10">
+        <v>10.778</v>
+      </c>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10">
+        <v>14.359</v>
+      </c>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10">
+        <v>16.369</v>
+      </c>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10">
+        <v>15.257</v>
+      </c>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10">
+        <v>14.573</v>
+      </c>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10">
+        <v>20.923999999999999</v>
+      </c>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10">
+        <v>23.35</v>
+      </c>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10">
+        <v>22.672999999999998</v>
+      </c>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10">
+        <v>23.445</v>
+      </c>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10">
+        <v>56500</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>35</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.609</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>3.258</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>5.61</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
+        <v>7.391</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7">
+        <v>7.6239999999999997</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>9.0060000000000002</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7">
+        <v>8.7159999999999993</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7">
+        <v>11.292999999999999</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="10">
+        <v>10.744</v>
+      </c>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10">
+        <v>14.35</v>
+      </c>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10">
+        <v>15.237</v>
+      </c>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10">
+        <v>14.55</v>
+      </c>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10">
+        <v>22.763999999999999</v>
+      </c>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10">
+        <v>23.41</v>
+      </c>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10">
+        <v>40000</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>38.4</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>40</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A09CE3-A941-47B2-BC0F-F9F07776A59A}">
+  <dimension ref="A1:BB9"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="54" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>3.331</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2">
+        <v>4.2389999999999999</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6">
+        <v>5.6769999999999996</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6">
+        <v>4.8010000000000002</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2" s="6">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7">
+        <v>9.0640000000000001</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6">
+        <v>8.7330000000000005</v>
+      </c>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6">
+        <v>11.226000000000001</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6">
+        <v>11.394</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="9">
+        <v>10.875</v>
+      </c>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9">
+        <v>16.376999999999999</v>
+      </c>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9">
+        <v>15.233000000000001</v>
+      </c>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9">
+        <v>14.539</v>
+      </c>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="10">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9">
+        <v>23.718</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9">
+        <v>22.777999999999999</v>
+      </c>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9">
+        <v>23.62</v>
+      </c>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9">
+        <v>53500</v>
+      </c>
+      <c r="AZ2" s="10">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="BA2" s="9">
+        <v>64</v>
+      </c>
+      <c r="BB2" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+    </row>
+    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.6739999999999999</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
-        <v>3.2930000000000001</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>4.0709999999999997</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7">
-        <v>3.6819999999999999</v>
+        <v>3.669</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>4.3550000000000004</v>
+      <c r="J4" s="6">
+        <v>4.2160000000000002</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7">
-        <v>5.7809999999999997</v>
+        <v>5.65</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7">
-        <v>4.8369999999999997</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7">
-        <v>4.931</v>
+        <v>4.7949999999999999</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7">
-        <v>7.55</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7">
-        <v>7.7759999999999998</v>
+        <v>7.6</v>
       </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>9.1280000000000001</v>
+      <c r="V4" s="8">
+        <v>9.0500000000000007</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7">
-        <v>8.85</v>
+        <v>8.6940000000000008</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7">
-        <v>9.9499999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <v>11.467000000000001</v>
+        <v>11.244</v>
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7">
-        <v>11.5</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="10">
-        <v>10.875999999999999</v>
+        <v>10.824999999999999</v>
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10">
-        <v>14.55</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10">
-        <v>16.666</v>
+        <v>16.344000000000001</v>
       </c>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10">
-        <v>15.484</v>
+        <v>15.2</v>
       </c>
       <c r="AM4" s="10"/>
       <c r="AN4" s="10">
-        <v>14.92</v>
+        <v>14.494999999999999</v>
       </c>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10">
-        <v>21.765000000000001</v>
+        <v>21.109000000000002</v>
       </c>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10">
-        <v>24.306000000000001</v>
+        <v>23.556999999999999</v>
       </c>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10">
-        <v>23.51</v>
+        <v>22.681999999999999</v>
       </c>
       <c r="AU4" s="10"/>
       <c r="AV4" s="10">
-        <v>24.085000000000001</v>
+        <v>23.565000000000001</v>
       </c>
       <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="10">
-        <v>81000</v>
+        <v>82000</v>
       </c>
       <c r="AZ4" s="10">
-        <v>42.6</v>
+        <v>43.7</v>
       </c>
       <c r="BA4" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BB4" s="10">
-        <v>9.4499999999999993</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3336,7 +4325,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3348,7 +4337,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -3368,7 +4357,7 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="10"/>
       <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
+      <c r="AP5" s="12"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -3383,176 +4372,280 @@
       <c r="BB5" s="10"/>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
       <c r="B6" s="7">
-        <v>2.6349999999999998</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>4.0389999999999997</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <v>3.6579999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
-        <v>4.3220000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <v>5.7240000000000002</v>
+        <v>5.62</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <v>3.7959999999999998</v>
+        <v>4.6710000000000003</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7">
-        <v>4.8879999999999999</v>
+        <v>4.7750000000000004</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <v>7.5350000000000001</v>
+        <v>7.3769999999999998</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7">
-        <v>7.742</v>
+        <v>7.5709999999999997</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7">
-        <v>9.1</v>
+        <v>9.0869999999999997</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <v>8.8170000000000002</v>
+        <v>8.6890000000000001</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7">
-        <v>9.8689999999999998</v>
+        <v>9.7929999999999993</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
-        <v>11.4</v>
+        <v>11.167</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="10">
-        <v>10.816000000000001</v>
+        <v>10.754</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10">
-        <v>14.624000000000001</v>
+        <v>14.289</v>
       </c>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10">
-        <v>16.466000000000001</v>
+        <v>16.306999999999999</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10">
-        <v>15.382</v>
+        <v>15.183999999999999</v>
       </c>
       <c r="AM6" s="10"/>
       <c r="AN6" s="10">
-        <v>14.85</v>
+        <v>14.474</v>
       </c>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="10">
-        <v>21.663</v>
+      <c r="AP6" s="12">
+        <v>21.007000000000001</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10">
-        <v>24.123999999999999</v>
+        <v>23.373999999999999</v>
       </c>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10">
-        <v>23.491</v>
+        <v>22.75</v>
       </c>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10">
-        <v>23.97</v>
+        <v>23.532</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10">
-        <v>76800</v>
+        <v>87000</v>
       </c>
       <c r="AZ6" s="10">
-        <v>42.4</v>
+        <v>46.4</v>
       </c>
       <c r="BA6" s="10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="BB6" s="10">
-        <v>9.5500000000000007</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
+      <c r="B7" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.371</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3.758</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5.8049999999999997</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>5.0309999999999997</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7.6740000000000004</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="V7" s="7">
+        <v>9.2859999999999996</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="X7" s="7">
+        <v>8.968</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>11.577999999999999</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>11.15</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>15.692</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>15.007</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>21.916</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>24.117999999999999</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>23.466000000000001</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
+      <c r="AY7" s="10">
+        <v>90200</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>46.6</v>
+      </c>
+      <c r="BA7" s="10">
+        <v>27</v>
+      </c>
+      <c r="BB7" s="10">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -3560,9 +4653,9 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3613,3049 +4706,118 @@
       <c r="BB8" s="10"/>
     </row>
     <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5004C8-C72E-437F-9118-49E3179983CF}">
-  <dimension ref="A1:BB9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB18" sqref="BB18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="54" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B9" s="7">
         <v>2.7</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="10">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <v>4.1029999999999998</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>3.71</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2">
-        <v>4.3920000000000003</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
-        <v>5.85</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6">
-        <v>4.9089999999999998</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6">
-        <v>5.008</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6">
-        <v>7.6040000000000001</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" s="6">
-        <v>7.8410000000000002</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7">
-        <v>9.1739999999999995</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6">
-        <v>8.92</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="11">
-        <v>10.006</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="10">
-        <v>11.54</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
-        <v>11.595000000000001</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="9">
-        <v>11.05</v>
-      </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9">
-        <v>14.75</v>
-      </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9">
-        <v>16.716000000000001</v>
-      </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9">
-        <v>15.593999999999999</v>
-      </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9">
-        <v>15</v>
-      </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10">
-        <v>21.655999999999999</v>
-      </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9">
-        <v>24.314</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9">
-        <v>23.335000000000001</v>
-      </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9">
-        <v>24.405999999999999</v>
-      </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9">
-        <v>49500</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>37.4</v>
-      </c>
-      <c r="BA2" s="9">
-        <v>55</v>
-      </c>
-      <c r="BB2" s="9">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10">
-        <v>3.3290000000000002</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>3.7069999999999999</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6">
-        <v>4.383</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>5.8339999999999996</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>4.8890000000000002</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
-        <v>7.569</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
-        <v>7.819</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8">
-        <v>9.1310000000000002</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7">
-        <v>9.9920000000000009</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="10">
-        <v>11.516</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7">
-        <v>11.545</v>
-      </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="10">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10">
-        <v>14.683</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10">
-        <v>16.690999999999999</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10">
-        <v>15.542999999999999</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10">
-        <v>14.914</v>
-      </c>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10">
-        <v>21.683</v>
-      </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10">
-        <v>24.291</v>
-      </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10">
-        <v>23.245000000000001</v>
-      </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10">
-        <v>24.314</v>
-      </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10">
-        <v>87400</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>41.2</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>44</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10">
-        <v>3.3029999999999999</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>4.069</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>4.8819999999999997</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <v>4.9770000000000003</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <v>7.5410000000000004</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7">
-        <v>7.782</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>9.15</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>8.86</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
-        <v>9.9890000000000008</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="10">
-        <v>11.467000000000001</v>
-      </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <v>11.507</v>
-      </c>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="10">
-        <v>10.95</v>
-      </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10">
-        <v>14.635</v>
-      </c>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10">
-        <v>16.63</v>
-      </c>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10">
-        <v>15.51</v>
-      </c>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10">
-        <v>14.935</v>
-      </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="12">
-        <v>21.625</v>
-      </c>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10">
-        <v>24.24</v>
-      </c>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10">
-        <v>23.34</v>
-      </c>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10">
-        <v>24.260999999999999</v>
-      </c>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10">
-        <v>84800</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>44.1</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>40</v>
-      </c>
-      <c r="BB4" s="10">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-    </row>
-    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-    </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10">
-        <v>3.2360000000000002</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>3.641</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>4</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
-        <v>4.9139999999999997</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7">
-        <v>7.47</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>7.71</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7">
-        <v>9.0559999999999992</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7">
-        <v>8.7650000000000006</v>
-      </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="10">
-        <v>9.8610000000000007</v>
-      </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="10">
-        <v>11.345000000000001</v>
-      </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7">
-        <v>11.4</v>
-      </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="10">
-        <v>10.831</v>
-      </c>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10">
-        <v>14.55</v>
-      </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10">
-        <v>15.372999999999999</v>
-      </c>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10">
-        <v>14.808</v>
-      </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10">
-        <v>21.445</v>
-      </c>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10">
-        <v>24.05</v>
-      </c>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10">
-        <v>23.178999999999998</v>
-      </c>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10">
-        <v>24.07</v>
-      </c>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10">
-        <v>89700</v>
-      </c>
-      <c r="AZ7" s="10">
-        <v>38.9</v>
-      </c>
-      <c r="BA7" s="10">
-        <v>53</v>
-      </c>
-      <c r="BB7" s="10"/>
-    </row>
-    <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-    </row>
-    <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A094F24-77A8-4A12-975D-0B6D22456D7B}">
-  <dimension ref="A1:BB9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="54" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>3.194</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2">
-        <v>4.2</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
-        <v>5.5750000000000002</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6">
-        <v>4.6449999999999996</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6">
-        <v>7.6289999999999996</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" s="6">
-        <v>7.5570000000000004</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7">
-        <v>9.07</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6">
-        <v>8.7159999999999993</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6">
-        <v>9.7629999999999999</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6">
-        <v>11.217000000000001</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
-        <v>11.512</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="9">
-        <v>10.69</v>
-      </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9">
-        <v>14.189</v>
-      </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9">
-        <v>15.173</v>
-      </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9">
-        <v>14.461</v>
-      </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10">
-        <v>20.268000000000001</v>
-      </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9">
-        <v>22.864000000000001</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9">
-        <v>22.172999999999998</v>
-      </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9">
-        <v>22.890999999999998</v>
-      </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9">
-        <v>48800</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>37</v>
-      </c>
-      <c r="BA2" s="9">
-        <v>48</v>
-      </c>
-      <c r="BB2" s="9">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2.5630000000000002</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>3.2629999999999999</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>4.03</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6">
-        <v>4.1589999999999998</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>5.5629999999999997</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>4.6310000000000002</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>4.6859999999999999</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
-        <v>7.2149999999999999</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
-        <v>7.5380000000000003</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8">
-        <v>9.0950000000000006</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7">
-        <v>8.7360000000000007</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7">
-        <v>9.7919999999999998</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7">
-        <v>11.254</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7">
-        <v>11.345000000000001</v>
-      </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="10">
-        <v>10.727</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10">
-        <v>14.2</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10">
-        <v>16.315999999999999</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10">
-        <v>15.153</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10">
-        <v>14.417</v>
-      </c>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10">
-        <v>20.225999999999999</v>
-      </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10">
-        <v>22.896000000000001</v>
-      </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10">
-        <v>22.045000000000002</v>
-      </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10">
-        <v>22.873000000000001</v>
-      </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10">
-        <v>68700</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>41.2</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>37</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.7589999999999999</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.3460000000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4.1269999999999998</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3.73</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4.3620000000000001</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="7">
-        <v>5.8010000000000002</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4.8680000000000003</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="7">
-        <v>4.95</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="7">
-        <v>7.64</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="T4" s="7">
-        <v>7.8879999999999999</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V4" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="X4" s="7">
-        <v>8.9730000000000008</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>10.138999999999999</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>11.840999999999999</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>11.664999999999999</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>11.12</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>14.773999999999999</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>16.774999999999999</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>15.643000000000001</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="10">
-        <v>14.9</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>21.245000000000001</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="AR4" s="10">
-        <v>23.93</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>23.177</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>24.07</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10">
-        <v>85000</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>45.2</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>28</v>
-      </c>
-      <c r="BB4" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>3.319</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <v>4.2939999999999996</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>5.718</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>4.883</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>7.5369999999999999</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
-        <v>7.7759999999999998</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
-        <v>9.9779999999999998</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7">
-        <v>11.506</v>
-      </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7">
-        <v>11.531000000000001</v>
-      </c>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="10">
-        <v>10.97</v>
-      </c>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10">
-        <v>14.62</v>
-      </c>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10">
-        <v>15.648</v>
-      </c>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10">
-        <v>14.776</v>
-      </c>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10">
-        <v>21.209</v>
-      </c>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10">
-        <v>23.693000000000001</v>
-      </c>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10">
-        <v>23.023</v>
-      </c>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10">
-        <v>23.765000000000001</v>
-      </c>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10">
-        <v>90200</v>
-      </c>
-      <c r="AZ5" s="10">
-        <v>45.8</v>
-      </c>
-      <c r="BA5" s="10">
-        <v>26</v>
-      </c>
-      <c r="BB5" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3.3140000000000001</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>4.0529999999999999</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>3.6880000000000002</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>4.2569999999999997</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>5.7089999999999996</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>4.7590000000000003</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>7.4930000000000003</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7">
-        <v>7.726</v>
-      </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>8.843</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
-        <v>9.8870000000000005</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>11.472</v>
-      </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
-        <v>11.465</v>
-      </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="10">
-        <v>10.9</v>
-      </c>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10">
-        <v>14.486000000000001</v>
-      </c>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10">
-        <v>16.495999999999999</v>
-      </c>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10">
-        <v>15.38</v>
-      </c>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10">
-        <v>14.69</v>
-      </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10">
-        <v>20.992999999999999</v>
-      </c>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10">
-        <v>23.532</v>
-      </c>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10">
-        <v>22.844999999999999</v>
-      </c>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10">
-        <v>23.614999999999998</v>
-      </c>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10">
-        <v>84500</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>44.9</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>29</v>
-      </c>
-      <c r="BB6" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2.64</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>3.6659999999999999</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>4.2409999999999997</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
-        <v>5.65</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>4.7290000000000001</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
-        <v>4.8159999999999998</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7">
-        <v>7.4340000000000002</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>7.6929999999999996</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7">
-        <v>9.8550000000000004</v>
-      </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7">
-        <v>11.381</v>
-      </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7">
-        <v>11.417999999999999</v>
-      </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="10">
-        <v>10.84</v>
-      </c>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10">
-        <v>14.422000000000001</v>
-      </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10">
-        <v>16.431000000000001</v>
-      </c>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10">
-        <v>15.318</v>
-      </c>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10">
-        <v>14.645</v>
-      </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10">
-        <v>20.984999999999999</v>
-      </c>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10">
-        <v>23.452999999999999</v>
-      </c>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10">
-        <v>22.831</v>
-      </c>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10">
-        <v>23.565999999999999</v>
-      </c>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10">
-        <v>77000</v>
-      </c>
-      <c r="AZ7" s="10">
-        <v>43.5</v>
-      </c>
-      <c r="BA7" s="10">
-        <v>31</v>
-      </c>
-      <c r="BB7" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2.6179999999999999</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8">
-        <v>3.27</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>3.65</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>4.2110000000000003</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
-        <v>5.6280000000000001</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>4.6909999999999998</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
-        <v>4.7859999999999996</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
-        <v>7.4210000000000003</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7">
-        <v>7.657</v>
-      </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7">
-        <v>8.7409999999999997</v>
-      </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7">
-        <v>9.8030000000000008</v>
-      </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7">
-        <v>11.327999999999999</v>
-      </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7">
-        <v>11.374000000000001</v>
-      </c>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="10">
-        <v>10.778</v>
-      </c>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10">
-        <v>14.359</v>
-      </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10">
-        <v>16.369</v>
-      </c>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10">
-        <v>15.257</v>
-      </c>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10">
-        <v>14.573</v>
-      </c>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10">
-        <v>20.923999999999999</v>
-      </c>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10">
-        <v>23.35</v>
-      </c>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10">
-        <v>22.672999999999998</v>
-      </c>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10">
-        <v>23.445</v>
-      </c>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10">
-        <v>56500</v>
-      </c>
-      <c r="AZ8" s="10">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="BA8" s="10">
-        <v>35</v>
-      </c>
-      <c r="BB8" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2.609</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7">
-        <v>3.258</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>3.9940000000000002</v>
+        <v>4.0919999999999996</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7">
-        <v>3.6280000000000001</v>
+        <v>3.7229999999999999</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7">
-        <v>4.2</v>
+        <v>4.3789999999999996</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7">
-        <v>5.61</v>
+        <v>5.7770000000000001</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <v>4.6870000000000003</v>
+        <v>4.8330000000000002</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7">
-        <v>4.7670000000000003</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>7.391</v>
+        <v>7.5839999999999996</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7">
-        <v>7.6239999999999997</v>
+        <v>7.8360000000000003</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7">
-        <v>9.0060000000000002</v>
+        <v>9.1750000000000007</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7">
-        <v>8.7159999999999993</v>
+        <v>8.8919999999999995</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7">
-        <v>9.7799999999999994</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7">
-        <v>11.292999999999999</v>
+        <v>11.472</v>
       </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7">
-        <v>11.353999999999999</v>
+        <v>11.52</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="10">
-        <v>10.744</v>
+        <v>10.073</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10">
-        <v>14.35</v>
+        <v>14.693</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10">
-        <v>16.350000000000001</v>
+        <v>16.722999999999999</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10">
-        <v>15.237</v>
+        <v>15.532</v>
       </c>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10">
-        <v>14.55</v>
+        <v>14.842000000000001</v>
       </c>
       <c r="AO9" s="10"/>
       <c r="AP9" s="10">
-        <v>20.8</v>
+        <v>21.736000000000001</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10">
-        <v>23.3</v>
+        <v>23.988</v>
       </c>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10">
-        <v>22.763999999999999</v>
+        <v>23.283000000000001</v>
       </c>
       <c r="AU9" s="10"/>
       <c r="AV9" s="10">
-        <v>23.41</v>
+        <v>24.032</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="10"/>
       <c r="AY9" s="10">
-        <v>40000</v>
+        <v>94000</v>
       </c>
       <c r="AZ9" s="10">
-        <v>38.4</v>
+        <v>48.6</v>
       </c>
       <c r="BA9" s="10">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="BB9" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A09CE3-A941-47B2-BC0F-F9F07776A59A}">
-  <dimension ref="A1:BB9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="54" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2.6920000000000002</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>3.331</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <v>4.0309999999999997</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>3.67</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2">
-        <v>4.2389999999999999</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
-        <v>5.6769999999999996</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6">
-        <v>4.8010000000000002</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6">
-        <v>7.4139999999999997</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" s="6">
-        <v>7.6280000000000001</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7">
-        <v>9.0640000000000001</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6">
-        <v>8.7330000000000005</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6">
-        <v>9.7840000000000007</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6">
-        <v>11.226000000000001</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
-        <v>11.394</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="9">
-        <v>10.875</v>
-      </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9">
-        <v>14.4</v>
-      </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9">
-        <v>16.376999999999999</v>
-      </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9">
-        <v>15.233000000000001</v>
-      </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9">
-        <v>14.539</v>
-      </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10">
-        <v>21.228000000000002</v>
-      </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9">
-        <v>23.718</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9">
-        <v>22.777999999999999</v>
-      </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9">
-        <v>23.62</v>
-      </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9">
-        <v>53500</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="BA2" s="9">
-        <v>64</v>
-      </c>
-      <c r="BB2" s="9">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>3.3239999999999998</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>4.0270000000000001</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>3.669</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6">
-        <v>4.2160000000000002</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>5.65</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>4.6980000000000004</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
-        <v>7.3929999999999998</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
-        <v>7.6</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7">
-        <v>8.6940000000000008</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7">
-        <v>11.244</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7">
-        <v>11.391999999999999</v>
-      </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="10">
-        <v>10.824999999999999</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10">
-        <v>14.324999999999999</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10">
-        <v>16.344000000000001</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10">
-        <v>15.2</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10">
-        <v>14.494999999999999</v>
-      </c>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10">
-        <v>21.109000000000002</v>
-      </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10">
-        <v>23.556999999999999</v>
-      </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10">
-        <v>22.681999999999999</v>
-      </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10">
-        <v>23.565000000000001</v>
-      </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10">
-        <v>82000</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>43.7</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>34</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>3.9950000000000001</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>3.65</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>5.62</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>4.6710000000000003</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <v>4.7750000000000004</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <v>7.3769999999999998</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7">
-        <v>7.5709999999999997</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>9.0869999999999997</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>8.6890000000000001</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
-        <v>9.7929999999999993</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7">
-        <v>11.167</v>
-      </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <v>11.35</v>
-      </c>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="10">
-        <v>10.754</v>
-      </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10">
-        <v>14.289</v>
-      </c>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10">
-        <v>16.306999999999999</v>
-      </c>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10">
-        <v>15.183999999999999</v>
-      </c>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10">
-        <v>14.474</v>
-      </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="12">
-        <v>21.007000000000001</v>
-      </c>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10">
-        <v>23.373999999999999</v>
-      </c>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10">
-        <v>22.75</v>
-      </c>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10">
-        <v>23.532</v>
-      </c>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10">
-        <v>87000</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>46.4</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>30</v>
-      </c>
-      <c r="BB4" s="10">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2.73</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3.371</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.1219999999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3.758</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="7">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="7">
-        <v>5.8049999999999997</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4.8949999999999996</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="7">
-        <v>5.0309999999999997</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="7">
-        <v>7.6740000000000004</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="T5" s="7">
-        <v>7.95</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V5" s="7">
-        <v>9.2859999999999996</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="7">
-        <v>8.968</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>11.577999999999999</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>11.75</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>11.15</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>14.8</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>16.728000000000002</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>15.692</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>15.007</v>
-      </c>
-      <c r="AO5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="10">
-        <v>21.916</v>
-      </c>
-      <c r="AQ5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AR5" s="10">
-        <v>24.117999999999999</v>
-      </c>
-      <c r="AS5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AT5" s="10">
-        <v>23.466000000000001</v>
-      </c>
-      <c r="AU5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AV5" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="AW5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10">
-        <v>90200</v>
-      </c>
-      <c r="AZ5" s="10">
-        <v>46.6</v>
-      </c>
-      <c r="BA5" s="10">
-        <v>27</v>
-      </c>
-      <c r="BB5" s="10">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3.3330000000000002</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>5.7770000000000001</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>4.8330000000000002</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>4.9450000000000003</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>7.5839999999999996</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7">
-        <v>7.8360000000000003</v>
-      </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>9.1750000000000007</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>11.472</v>
-      </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
-        <v>11.52</v>
-      </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="10">
-        <v>10.073</v>
-      </c>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10">
-        <v>14.693</v>
-      </c>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10">
-        <v>16.722999999999999</v>
-      </c>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10">
-        <v>15.532</v>
-      </c>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10">
-        <v>14.842000000000001</v>
-      </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10">
-        <v>21.736000000000001</v>
-      </c>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10">
-        <v>23.988</v>
-      </c>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10">
-        <v>23.283000000000001</v>
-      </c>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10">
-        <v>24.032</v>
-      </c>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10">
-        <v>94000</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>48.6</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>24</v>
-      </c>
-      <c r="BB6" s="10">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-    </row>
-    <row r="8" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-    </row>
-    <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6666,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FB7389-B2D8-46EF-956C-E08F87E00983}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7751,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48F554-6D39-4BDC-A6BF-6EF14B2D6CAE}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8040,279 +6202,175 @@
       </c>
     </row>
     <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>4.0039999999999996</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>3.6349999999999998</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>5.7119999999999997</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>4.8460000000000001</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
-        <v>7.55</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
-        <v>7.718</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8">
-        <v>9.09</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7">
-        <v>8.7309999999999999</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7">
-        <v>9.76</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7">
-        <v>11.356</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7">
-        <v>11.35</v>
-      </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="10">
-        <v>10.772</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10">
-        <v>14.39</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10">
-        <v>16.658000000000001</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10">
-        <v>15.327999999999999</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10">
-        <v>14.772</v>
-      </c>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10">
-        <v>21.36</v>
-      </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10">
-        <v>23.579000000000001</v>
-      </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10">
-        <v>22.888000000000002</v>
-      </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10">
-        <v>23.675999999999998</v>
-      </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10">
-        <v>85200</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>41.7</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>38</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>3.4</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
     </row>
     <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10</v>
       </c>
       <c r="B4" s="7">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.3</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7">
-        <v>3.379</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.3</v>
-      </c>
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>4.1260000000000003</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.3</v>
-      </c>
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7">
-        <v>3.742</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.5</v>
-      </c>
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7">
-        <v>5.8719999999999999</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0.5</v>
-      </c>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7">
-        <v>4.9290000000000003</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.5</v>
-      </c>
+        <v>4.7380000000000004</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="P4" s="7">
-        <v>5.0529999999999999</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0.5</v>
-      </c>
+        <v>4.8460000000000001</v>
+      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7">
-        <v>7.6820000000000004</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0.6</v>
-      </c>
+        <v>7.55</v>
+      </c>
+      <c r="S4" s="7"/>
       <c r="T4" s="7">
-        <v>7.9119999999999999</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V4" s="7">
-        <v>9.3450000000000006</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0.6</v>
-      </c>
+        <v>7.718</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8">
+        <v>9.09</v>
+      </c>
+      <c r="W4" s="7"/>
       <c r="X4" s="7">
-        <v>9.0280000000000005</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0.6</v>
-      </c>
+        <v>8.7309999999999999</v>
+      </c>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="7">
-        <v>10.084</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0.75</v>
-      </c>
+        <v>9.76</v>
+      </c>
+      <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <v>11.646000000000001</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0.75</v>
-      </c>
+        <v>11.356</v>
+      </c>
+      <c r="AC4" s="7"/>
       <c r="AD4" s="7">
-        <v>11.762</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0.75</v>
-      </c>
+        <v>11.35</v>
+      </c>
+      <c r="AE4" s="7"/>
       <c r="AF4" s="10">
-        <v>11.1</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0.75</v>
-      </c>
+        <v>10.772</v>
+      </c>
+      <c r="AG4" s="10"/>
       <c r="AH4" s="10">
-        <v>14.996</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>1</v>
-      </c>
+        <v>14.39</v>
+      </c>
+      <c r="AI4" s="10"/>
       <c r="AJ4" s="10">
-        <v>16.95</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>1</v>
-      </c>
+        <v>16.658000000000001</v>
+      </c>
+      <c r="AK4" s="10"/>
       <c r="AL4" s="10">
-        <v>15.791</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>1</v>
-      </c>
+        <v>15.327999999999999</v>
+      </c>
+      <c r="AM4" s="10"/>
       <c r="AN4" s="10">
-        <v>15.228999999999999</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>22.094999999999999</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>14.772</v>
+      </c>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10">
+        <v>21.36</v>
+      </c>
+      <c r="AQ4" s="10"/>
       <c r="AR4" s="10">
-        <v>24.45</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>23.579000000000001</v>
+      </c>
+      <c r="AS4" s="10"/>
       <c r="AT4" s="10">
-        <v>23.626999999999999</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22.888000000000002</v>
+      </c>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="10">
-        <v>24.411999999999999</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>23.675999999999998</v>
+      </c>
+      <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="10">
-        <v>93300</v>
+        <v>85200</v>
       </c>
       <c r="AZ4" s="10">
-        <v>43.6</v>
+        <v>41.7</v>
       </c>
       <c r="BA4" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BB4" s="10">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -8320,298 +6378,330 @@
         <v>11</v>
       </c>
       <c r="B5" s="7">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.3</v>
+      </c>
       <c r="D5" s="7">
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>3.379</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.3</v>
+      </c>
       <c r="F5" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>4.1260000000000003</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.3</v>
+      </c>
       <c r="H5" s="7">
-        <v>3.726</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>3.742</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.3</v>
+      </c>
       <c r="J5" s="7">
-        <v>4.4359999999999999</v>
-      </c>
-      <c r="K5" s="7"/>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="7">
-        <v>5.8319999999999999</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>5.8719999999999999</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="N5" s="7">
-        <v>4.8869999999999996</v>
-      </c>
-      <c r="O5" s="7"/>
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="P5" s="7">
-        <v>5.0069999999999997</v>
-      </c>
-      <c r="Q5" s="7"/>
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="R5" s="7">
-        <v>7.617</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>7.6820000000000004</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.6</v>
+      </c>
       <c r="T5" s="7">
-        <v>7.819</v>
-      </c>
-      <c r="U5" s="7"/>
+        <v>7.9119999999999999</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.6</v>
+      </c>
       <c r="V5" s="7">
-        <v>9.2859999999999996</v>
-      </c>
-      <c r="W5" s="7"/>
+        <v>9.3450000000000006</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.6</v>
+      </c>
       <c r="X5" s="7">
-        <v>8.9109999999999996</v>
-      </c>
-      <c r="Y5" s="7"/>
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.6</v>
+      </c>
       <c r="Z5" s="7">
-        <v>9.984</v>
-      </c>
-      <c r="AA5" s="7"/>
+        <v>10.084</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.75</v>
+      </c>
       <c r="AB5" s="7">
-        <v>11.564</v>
-      </c>
-      <c r="AC5" s="7"/>
+        <v>11.646000000000001</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.75</v>
+      </c>
       <c r="AD5" s="7">
-        <v>11.523</v>
-      </c>
-      <c r="AE5" s="7"/>
+        <v>11.762</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.75</v>
+      </c>
       <c r="AF5" s="10">
-        <v>11.019</v>
-      </c>
-      <c r="AG5" s="10"/>
+        <v>11.1</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0.75</v>
+      </c>
       <c r="AH5" s="10">
-        <v>14.74</v>
-      </c>
-      <c r="AI5" s="10"/>
+        <v>14.996</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="10">
-        <v>16.756</v>
-      </c>
-      <c r="AK5" s="10"/>
+        <v>16.95</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1</v>
+      </c>
       <c r="AL5" s="10">
-        <v>15.779</v>
-      </c>
-      <c r="AM5" s="10"/>
+        <v>15.791</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>1</v>
+      </c>
       <c r="AN5" s="10">
-        <v>14.975</v>
-      </c>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10">
-        <v>21.9</v>
-      </c>
-      <c r="AQ5" s="10"/>
+        <v>15.228999999999999</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>22.094999999999999</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AR5" s="10">
-        <v>24.007999999999999</v>
-      </c>
-      <c r="AS5" s="10"/>
+        <v>24.45</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AT5" s="10">
-        <v>23.423999999999999</v>
-      </c>
-      <c r="AU5" s="10"/>
+        <v>23.626999999999999</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AV5" s="10">
-        <v>24.09</v>
-      </c>
-      <c r="AW5" s="10"/>
+        <v>24.411999999999999</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AX5" s="10"/>
       <c r="AY5" s="10">
-        <v>45800</v>
+        <v>93300</v>
       </c>
       <c r="AZ5" s="10">
-        <v>40.4</v>
+        <v>43.6</v>
       </c>
       <c r="BA5" s="10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB5" s="10">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <v>2.6659999999999999</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3.34</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>4.0759999999999996</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>3.6949999999999998</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>4.444</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>5.8</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>4.8499999999999996</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>4.9029999999999996</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>7.58</v>
-      </c>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7">
-        <v>7.782</v>
-      </c>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>9.1850000000000005</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>8.8870000000000005</v>
-      </c>
+      <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
-        <v>9.9369999999999994</v>
-      </c>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>11.5</v>
-      </c>
+      <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
-        <v>11.518000000000001</v>
-      </c>
+      <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="10">
-        <v>10.959</v>
-      </c>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="10">
-        <v>14.683999999999999</v>
-      </c>
+      <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
-      <c r="AJ6" s="10">
-        <v>16.623999999999999</v>
-      </c>
+      <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="10">
-        <v>15.534000000000001</v>
-      </c>
+      <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="10">
-        <v>14.868</v>
-      </c>
+      <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="10">
-        <v>21.690999999999999</v>
-      </c>
+      <c r="AP6" s="12"/>
       <c r="AQ6" s="10"/>
-      <c r="AR6" s="10">
-        <v>23.905000000000001</v>
-      </c>
+      <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
-      <c r="AT6" s="10">
-        <v>23.25</v>
-      </c>
+      <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
-      <c r="AV6" s="10">
-        <v>23.95</v>
-      </c>
+      <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
-      <c r="AY6" s="10">
-        <v>46000</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>42.9</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>35</v>
-      </c>
-      <c r="BB6" s="10">
-        <v>3.5</v>
-      </c>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
     </row>
     <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>2.6840000000000002</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>3.3530000000000002</v>
+      </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>3.726</v>
+      </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>4.4359999999999999</v>
+      </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>5.8319999999999999</v>
+      </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>4.8869999999999996</v>
+      </c>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7">
+        <v>5.0069999999999997</v>
+      </c>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7">
+        <v>7.617</v>
+      </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="7">
+        <v>7.819</v>
+      </c>
       <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="V7" s="7">
+        <v>9.2859999999999996</v>
+      </c>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="7">
+        <v>8.9109999999999996</v>
+      </c>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="Z7" s="7">
+        <v>9.984</v>
+      </c>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="7">
+        <v>11.564</v>
+      </c>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="7">
+        <v>11.523</v>
+      </c>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="10"/>
+      <c r="AF7" s="10">
+        <v>11.019</v>
+      </c>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
+      <c r="AH7" s="10">
+        <v>14.74</v>
+      </c>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="AJ7" s="10">
+        <v>16.756</v>
+      </c>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
+      <c r="AL7" s="10">
+        <v>15.779</v>
+      </c>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
+      <c r="AN7" s="10">
+        <v>14.975</v>
+      </c>
       <c r="AO7" s="10"/>
       <c r="AP7" s="10">
-        <v>21.576000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10">
-        <v>23.785</v>
+        <v>24.007999999999999</v>
       </c>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10">
-        <v>23.143999999999998</v>
+        <v>23.423999999999999</v>
       </c>
       <c r="AU7" s="10"/>
       <c r="AV7" s="10">
-        <v>23.960999999999999</v>
+        <v>24.09</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10">
-        <v>1400</v>
+        <v>45800</v>
       </c>
       <c r="AZ7" s="10">
-        <v>31.4</v>
+        <v>40.4</v>
       </c>
       <c r="BA7" s="10">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="BB7" s="10">
         <v>3.5</v>
@@ -8623,9 +6713,9 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -8676,62 +6766,118 @@
       <c r="BB8" s="10"/>
     </row>
     <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>2.6659999999999999</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>3.34</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>4.0759999999999996</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>3.6949999999999998</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>4.444</v>
+      </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>5.8</v>
+      </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>4.8499999999999996</v>
+      </c>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7">
+        <v>4.9029999999999996</v>
+      </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="7">
+        <v>7.58</v>
+      </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <v>7.782</v>
+      </c>
       <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="7">
+        <v>9.1850000000000005</v>
+      </c>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="7">
+        <v>8.8870000000000005</v>
+      </c>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="7">
+        <v>9.9369999999999994</v>
+      </c>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="AB9" s="7">
+        <v>11.5</v>
+      </c>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="7">
+        <v>11.518000000000001</v>
+      </c>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="10"/>
+      <c r="AF9" s="10">
+        <v>10.959</v>
+      </c>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
+      <c r="AH9" s="10">
+        <v>14.683999999999999</v>
+      </c>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
+      <c r="AJ9" s="10">
+        <v>16.623999999999999</v>
+      </c>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
+      <c r="AL9" s="10">
+        <v>15.534000000000001</v>
+      </c>
       <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
+      <c r="AN9" s="10">
+        <v>14.868</v>
+      </c>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
+      <c r="AP9" s="10">
+        <v>21.690999999999999</v>
+      </c>
       <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
+      <c r="AR9" s="10">
+        <v>23.905000000000001</v>
+      </c>
       <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
+      <c r="AT9" s="10">
+        <v>23.25</v>
+      </c>
       <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
+      <c r="AV9" s="10">
+        <v>23.95</v>
+      </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
+      <c r="AY9" s="10">
+        <v>46000</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>42.9</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>35</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8742,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F114EE-E893-403C-A9A2-1528015E515D}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9433,7 +7579,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>1.083</v>
+        <v>4.0830000000000002</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
@@ -9559,7 +7705,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>0.79100000000000004</v>
+        <v>5.7910000000000004</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
@@ -9827,8 +7973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93122CD7-CB09-4B5C-986A-ED9F941F3E1F}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10279,453 +8425,397 @@
       <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
-        <v>2.7</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>3.36</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>3.7389999999999999</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>4.5</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>5.8280000000000003</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>4.9119999999999999</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <v>5.0380000000000003</v>
-      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <v>7.65</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7">
-        <v>7.883</v>
-      </c>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>9.2690000000000001</v>
-      </c>
+      <c r="V4" s="8"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>8.9329999999999998</v>
-      </c>
+      <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
-        <v>10.055</v>
-      </c>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7">
-        <v>11.59</v>
-      </c>
+      <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <v>11.6</v>
-      </c>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="10">
-        <v>11.042999999999999</v>
-      </c>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="10"/>
-      <c r="AH4" s="10">
-        <v>14.766999999999999</v>
-      </c>
+      <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="10">
-        <v>16.736999999999998</v>
-      </c>
+      <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
-      <c r="AL4" s="10">
-        <v>15.617000000000001</v>
-      </c>
+      <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="10">
-        <v>15.032</v>
-      </c>
+      <c r="AN4" s="10"/>
       <c r="AO4" s="10"/>
-      <c r="AP4" s="12">
-        <v>21.855</v>
-      </c>
+      <c r="AP4" s="12"/>
       <c r="AQ4" s="10"/>
-      <c r="AR4" s="10">
-        <v>24.419</v>
-      </c>
+      <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
-      <c r="AT4" s="10">
-        <v>23.533999999999999</v>
-      </c>
+      <c r="AT4" s="10"/>
       <c r="AU4" s="10"/>
-      <c r="AV4" s="10">
-        <v>24.25</v>
-      </c>
+      <c r="AV4" s="10"/>
       <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
-      <c r="AY4" s="10">
-        <v>94500</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>47.4</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>25</v>
-      </c>
-      <c r="BB4" s="10">
-        <v>4.8</v>
-      </c>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
     </row>
     <row r="5" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
       <c r="B5" s="7">
-        <v>2.6709999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <v>3.3279999999999998</v>
+        <v>3.36</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>4.0759999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
-        <v>3.718</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7">
-        <v>4.4379999999999997</v>
+        <v>4.5</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7">
-        <v>5.8140000000000001</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>4.8879999999999999</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7">
-        <v>5.0030000000000001</v>
+        <v>5.0380000000000003</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>7.593</v>
+        <v>7.65</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7">
-        <v>7.8339999999999996</v>
+        <v>7.883</v>
       </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="11">
-        <v>9.2279999999999998</v>
+      <c r="V5" s="7">
+        <v>9.2690000000000001</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7">
-        <v>8.9130000000000003</v>
+        <v>8.9329999999999998</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7">
-        <v>9.9670000000000005</v>
+        <v>10.055</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <v>11.528</v>
+        <v>11.59</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>11.528</v>
+        <v>11.6</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="10">
-        <v>11</v>
+        <v>11.042999999999999</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10">
-        <v>14.79</v>
+        <v>14.766999999999999</v>
       </c>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10">
-        <v>16.878</v>
+        <v>16.736999999999998</v>
       </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10">
-        <v>15.576000000000001</v>
+        <v>15.617000000000001</v>
       </c>
       <c r="AM5" s="10"/>
       <c r="AN5" s="10">
-        <v>14.955</v>
+        <v>15.032</v>
       </c>
       <c r="AO5" s="10"/>
-      <c r="AP5" s="10">
-        <v>21.704999999999998</v>
+      <c r="AP5" s="12">
+        <v>21.855</v>
       </c>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10">
-        <v>24.14</v>
+        <v>24.419</v>
       </c>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10">
-        <v>23.306999999999999</v>
+        <v>23.533999999999999</v>
       </c>
       <c r="AU5" s="10"/>
       <c r="AV5" s="10">
-        <v>24.123000000000001</v>
+        <v>24.25</v>
       </c>
       <c r="AW5" s="10"/>
       <c r="AX5" s="10"/>
       <c r="AY5" s="10">
-        <v>45600</v>
+        <v>94500</v>
       </c>
       <c r="AZ5" s="10">
-        <v>45.5</v>
+        <v>47.4</v>
       </c>
       <c r="BA5" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB5" s="10">
         <v>4.8</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
       <c r="B6" s="7">
-        <v>2.665</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <v>3.3109999999999999</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>4.0590000000000002</v>
+        <v>4.0759999999999996</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <v>3.7090000000000001</v>
+        <v>3.718</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
-        <v>4.41</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <v>5.7869999999999999</v>
+        <v>5.8140000000000001</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <v>4.867</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7">
-        <v>4.9610000000000003</v>
+        <v>5.0030000000000001</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <v>7.55</v>
+        <v>7.593</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7">
-        <v>7.8049999999999997</v>
+        <v>7.8339999999999996</v>
       </c>
       <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>9.1940000000000008</v>
+      <c r="V6" s="11">
+        <v>9.2279999999999998</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <v>8.8650000000000002</v>
+        <v>8.9130000000000003</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7">
-        <v>10</v>
+        <v>9.9670000000000005</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
-        <v>11.505000000000001</v>
+        <v>11.528</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
-        <v>11.537000000000001</v>
+        <v>11.528</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="10">
-        <v>10.959</v>
+        <v>11</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10">
-        <v>14.676</v>
+        <v>14.79</v>
       </c>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10">
-        <v>16.63</v>
+        <v>16.878</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10">
-        <v>15.49</v>
+        <v>15.576000000000001</v>
       </c>
       <c r="AM6" s="10"/>
       <c r="AN6" s="10">
-        <v>14.865</v>
+        <v>14.955</v>
       </c>
       <c r="AO6" s="10"/>
       <c r="AP6" s="10">
-        <v>21.654</v>
+        <v>21.704999999999998</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10">
-        <v>24.018999999999998</v>
+        <v>24.14</v>
       </c>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10">
-        <v>23.344000000000001</v>
+        <v>23.306999999999999</v>
       </c>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10">
-        <v>24.05</v>
+        <v>24.123000000000001</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10">
-        <v>94100</v>
+        <v>45600</v>
       </c>
       <c r="AZ6" s="10">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="BA6" s="10">
         <v>23</v>
       </c>
       <c r="BB6" s="10">
-        <v>4.8499999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>13</v>
       </c>
       <c r="B7" s="7">
-        <v>2.645</v>
+        <v>2.665</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
-        <v>3.2949999999999999</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>4.0410000000000004</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
-        <v>3.6869999999999998</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>5.77</v>
+        <v>5.7869999999999999</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>4.8499999999999996</v>
+        <v>4.867</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7">
-        <v>4.968</v>
+        <v>4.9610000000000003</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>7.5369999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
-        <v>7.7859999999999996</v>
+        <v>7.8049999999999997</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7">
-        <v>9.17</v>
+        <v>9.1940000000000008</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>8.8439999999999994</v>
+        <v>8.8650000000000002</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7">
-        <v>9.9550000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7">
-        <v>11.459</v>
+        <v>11.505000000000001</v>
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7">
-        <v>11.566000000000001</v>
+        <v>11.537000000000001</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="10">
-        <v>11.922000000000001</v>
+        <v>10.959</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10">
-        <v>14.683</v>
+        <v>14.676</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10">
-        <v>16.693999999999999</v>
+        <v>16.63</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10">
-        <v>15.565</v>
+        <v>15.49</v>
       </c>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10">
-        <v>15.041</v>
+        <v>14.865</v>
       </c>
       <c r="AO7" s="10"/>
       <c r="AP7" s="10">
-        <v>21.581</v>
+        <v>21.654</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10">
-        <v>23.971</v>
+        <v>24.018999999999998</v>
       </c>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10">
-        <v>23.274999999999999</v>
+        <v>23.344000000000001</v>
       </c>
       <c r="AU7" s="10"/>
       <c r="AV7" s="10">
-        <v>24.013999999999999</v>
+        <v>24.05</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10">
-        <v>76300</v>
+        <v>94100</v>
       </c>
       <c r="AZ7" s="10">
-        <v>45.6</v>
+        <v>48</v>
       </c>
       <c r="BA7" s="10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB7" s="10">
         <v>4.8499999999999996</v>
@@ -10735,61 +8825,115 @@
       <c r="A8" s="4">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>2.645</v>
+      </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7">
+        <v>3.2949999999999999</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7">
+        <v>4.0410000000000004</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>3.6869999999999998</v>
+      </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>5.77</v>
+      </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>4.8499999999999996</v>
+      </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7">
+        <v>4.968</v>
+      </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7">
+        <v>7.5369999999999999</v>
+      </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>7.7859999999999996</v>
+      </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7">
+        <v>9.17</v>
+      </c>
       <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>8.8439999999999994</v>
+      </c>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7">
+        <v>9.9550000000000001</v>
+      </c>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="7">
+        <v>11.459</v>
+      </c>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="AD8" s="7">
+        <v>11.566000000000001</v>
+      </c>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="10"/>
+      <c r="AF8" s="10">
+        <v>11.922000000000001</v>
+      </c>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
+      <c r="AH8" s="10">
+        <v>14.683</v>
+      </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="AJ8" s="10">
+        <v>16.693999999999999</v>
+      </c>
       <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
+      <c r="AL8" s="10">
+        <v>15.565</v>
+      </c>
       <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
+      <c r="AN8" s="10">
+        <v>15.041</v>
+      </c>
       <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
+      <c r="AP8" s="10">
+        <v>21.581</v>
+      </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10">
-        <v>23.917000000000002</v>
+        <v>23.971</v>
       </c>
       <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
+      <c r="AT8" s="10">
+        <v>23.274999999999999</v>
+      </c>
       <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
+      <c r="AV8" s="10">
+        <v>24.013999999999999</v>
+      </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
+      <c r="AY8" s="10">
+        <v>76300</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>45.6</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>26</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>4.8499999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -10858,8 +9002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEC0662-E787-4A44-A4D4-CBE9A455A6B4}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11205,7 +9349,7 @@
         <v>0.6</v>
       </c>
       <c r="T3" s="7">
-        <v>8.0820000000000007</v>
+        <v>7.0819999999999999</v>
       </c>
       <c r="U3" s="7">
         <v>0.6</v>
@@ -11940,8 +10084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC0DF8-D0DC-46EC-9ACD-6256DC21E5CE}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB9" sqref="BB9"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12797,7 +10941,7 @@
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="10">
-        <v>10.57</v>
+        <v>10.87</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10">
@@ -12911,7 +11055,7 @@
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="10">
-        <v>10.95</v>
+        <v>10.802</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10">
